--- a/test/fixtures/Playbills_9970657833503681.xlsx
+++ b/test/fixtures/Playbills_9970657833503681.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ggord/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ggord/code/playbill_extractor/test/fixtures/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="20040" yWindow="2320" windowWidth="28120" windowHeight="20980" activeTab="2"/>
+    <workbookView xWindow="14800" yWindow="3360" windowWidth="33920" windowHeight="20180" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="BibID" sheetId="8" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="166" uniqueCount="111">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="177" uniqueCount="120">
   <si>
     <t>Permanent Link</t>
   </si>
@@ -230,9 +230,6 @@
     <t>10/03/1857</t>
   </si>
   <si>
-    <t>Robbers: Or, the Forest of Bohemia</t>
-  </si>
-  <si>
     <t>… Romantic Tragic Play …</t>
   </si>
   <si>
@@ -369,6 +366,36 @@
   </si>
   <si>
     <t>partially identified</t>
+  </si>
+  <si>
+    <t>TEST</t>
+  </si>
+  <si>
+    <t>TEST1</t>
+  </si>
+  <si>
+    <t>TEST2</t>
+  </si>
+  <si>
+    <t>TESTdateS1</t>
+  </si>
+  <si>
+    <t>TESTdateS2</t>
+  </si>
+  <si>
+    <t>TESTdateW1</t>
+  </si>
+  <si>
+    <t>TESTdateW2</t>
+  </si>
+  <si>
+    <t>TESTheadliner1</t>
+  </si>
+  <si>
+    <t>TESTheadliner2</t>
+  </si>
+  <si>
+    <t>TEST3</t>
   </si>
 </sst>
 </file>
@@ -763,7 +790,7 @@
   <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView zoomScale="159" zoomScaleNormal="159" workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -817,7 +844,7 @@
   <dimension ref="A1:E16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D31" sqref="D31"/>
+      <selection activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -864,7 +891,7 @@
         <v>9</v>
       </c>
       <c r="B7" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
@@ -886,6 +913,12 @@
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>12</v>
+      </c>
+      <c r="B10" t="s">
+        <v>111</v>
+      </c>
+      <c r="C10" t="s">
+        <v>112</v>
       </c>
     </row>
     <row r="11" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.2">
@@ -969,7 +1002,7 @@
   <dimension ref="A1:O14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E45" sqref="E45:E48"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -986,16 +1019,13 @@
       <c r="A2" t="s">
         <v>18</v>
       </c>
-      <c r="B2" t="s">
-        <v>64</v>
-      </c>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>19</v>
       </c>
       <c r="B3" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.2">
@@ -1003,7 +1033,7 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.2">
@@ -1015,6 +1045,9 @@
       <c r="A6" t="s">
         <v>22</v>
       </c>
+      <c r="B6" t="s">
+        <v>110</v>
+      </c>
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
@@ -1073,46 +1106,46 @@
         <v>25</v>
       </c>
       <c r="B10" t="s">
+        <v>65</v>
+      </c>
+      <c r="C10" t="s">
         <v>66</v>
       </c>
-      <c r="C10" t="s">
-        <v>67</v>
-      </c>
       <c r="D10" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E10" t="s">
+        <v>81</v>
+      </c>
+      <c r="F10" t="s">
         <v>82</v>
       </c>
-      <c r="F10" t="s">
+      <c r="G10" t="s">
         <v>83</v>
       </c>
-      <c r="G10" t="s">
+      <c r="H10" t="s">
         <v>84</v>
       </c>
-      <c r="H10" t="s">
+      <c r="I10" t="s">
         <v>85</v>
       </c>
-      <c r="I10" t="s">
+      <c r="J10" t="s">
         <v>86</v>
       </c>
-      <c r="J10" t="s">
+      <c r="K10" t="s">
         <v>87</v>
       </c>
-      <c r="K10" t="s">
+      <c r="L10" t="s">
         <v>88</v>
       </c>
-      <c r="L10" t="s">
+      <c r="M10" t="s">
         <v>89</v>
       </c>
-      <c r="M10" t="s">
+      <c r="N10" t="s">
         <v>90</v>
       </c>
-      <c r="N10" t="s">
+      <c r="O10" t="s">
         <v>91</v>
-      </c>
-      <c r="O10" t="s">
-        <v>92</v>
       </c>
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.2">
@@ -1120,43 +1153,43 @@
         <v>26</v>
       </c>
       <c r="C11" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D11" t="s">
+        <v>69</v>
+      </c>
+      <c r="E11" t="s">
         <v>70</v>
       </c>
-      <c r="E11" t="s">
+      <c r="F11" t="s">
         <v>71</v>
       </c>
-      <c r="F11" t="s">
+      <c r="G11" t="s">
         <v>72</v>
       </c>
-      <c r="G11" t="s">
+      <c r="H11" t="s">
         <v>73</v>
       </c>
-      <c r="H11" t="s">
+      <c r="I11" t="s">
         <v>74</v>
       </c>
-      <c r="I11" t="s">
+      <c r="J11" t="s">
         <v>75</v>
       </c>
-      <c r="J11" t="s">
+      <c r="K11" t="s">
         <v>76</v>
       </c>
-      <c r="K11" t="s">
+      <c r="L11" t="s">
         <v>77</v>
       </c>
-      <c r="L11" t="s">
+      <c r="M11" t="s">
         <v>78</v>
       </c>
-      <c r="M11" t="s">
+      <c r="N11" t="s">
         <v>79</v>
       </c>
-      <c r="N11" t="s">
+      <c r="O11" t="s">
         <v>80</v>
-      </c>
-      <c r="O11" t="s">
-        <v>81</v>
       </c>
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.2">
@@ -1164,7 +1197,7 @@
         <v>27</v>
       </c>
       <c r="C12" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.2">
@@ -1172,46 +1205,46 @@
         <v>28</v>
       </c>
       <c r="B13" t="s">
+        <v>105</v>
+      </c>
+      <c r="C13" t="s">
+        <v>104</v>
+      </c>
+      <c r="D13" t="s">
+        <v>108</v>
+      </c>
+      <c r="E13" t="s">
+        <v>108</v>
+      </c>
+      <c r="F13" t="s">
+        <v>109</v>
+      </c>
+      <c r="G13" s="5" t="s">
         <v>106</v>
       </c>
-      <c r="C13" t="s">
-        <v>105</v>
-      </c>
-      <c r="D13" t="s">
-        <v>109</v>
-      </c>
-      <c r="E13" t="s">
-        <v>109</v>
-      </c>
-      <c r="F13" t="s">
-        <v>110</v>
-      </c>
-      <c r="G13" s="5" t="s">
-        <v>107</v>
-      </c>
       <c r="H13" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="I13" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="J13" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="K13" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="L13" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="M13" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="N13" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="O13" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="14" spans="1:15" ht="11" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1241,7 +1274,7 @@
   <dimension ref="A1:F13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="C45" sqref="C45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1259,7 +1292,7 @@
         <v>18</v>
       </c>
       <c r="B2" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
@@ -1267,7 +1300,7 @@
         <v>19</v>
       </c>
       <c r="B3" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.2">
@@ -1275,7 +1308,7 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.2">
@@ -1318,19 +1351,19 @@
         <v>25</v>
       </c>
       <c r="B10" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C10" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D10" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="E10" t="s">
+        <v>97</v>
+      </c>
+      <c r="F10" t="s">
         <v>98</v>
-      </c>
-      <c r="F10" t="s">
-        <v>99</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.2">
@@ -1338,19 +1371,19 @@
         <v>26</v>
       </c>
       <c r="B11" t="s">
+        <v>94</v>
+      </c>
+      <c r="C11" t="s">
         <v>95</v>
       </c>
-      <c r="C11" t="s">
+      <c r="D11" t="s">
         <v>96</v>
       </c>
-      <c r="D11" t="s">
-        <v>97</v>
-      </c>
       <c r="E11" t="s">
+        <v>99</v>
+      </c>
+      <c r="F11" t="s">
         <v>100</v>
-      </c>
-      <c r="F11" t="s">
-        <v>101</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.2">
@@ -1363,19 +1396,19 @@
         <v>28</v>
       </c>
       <c r="B13" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C13" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D13" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="E13" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="F13" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
   </sheetData>
@@ -1398,10 +1431,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A4"/>
+  <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E17" sqref="E17"/>
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1409,24 +1442,51 @@
     <col min="1" max="1" width="13.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B1" t="s">
+        <v>111</v>
+      </c>
+      <c r="C1" t="s">
+        <v>112</v>
+      </c>
+      <c r="D1" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B2" t="s">
+        <v>115</v>
+      </c>
+      <c r="C2" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B3" t="s">
+        <v>113</v>
+      </c>
+      <c r="C3" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>27</v>
+      </c>
+      <c r="B4" t="s">
+        <v>117</v>
+      </c>
+      <c r="D4" t="s">
+        <v>118</v>
       </c>
     </row>
   </sheetData>
@@ -1439,7 +1499,7 @@
   <dimension ref="A1:E3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H3" sqref="H3"/>
+      <selection activeCell="E23" sqref="E23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1457,7 +1517,7 @@
         <v>30</v>
       </c>
       <c r="B2" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
